--- a/Data_preparation/datasets/final_data/ADVANCED_MICRO_DEVICES.xlsx
+++ b/Data_preparation/datasets/final_data/ADVANCED_MICRO_DEVICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,120 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -766,22 +652,22 @@
         <v>42091</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>2.660000085830688</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>2.259999990463257</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>2.25</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>1622843689</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>2114256702</v>
@@ -882,22 +768,22 @@
         <v>42182</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>2.470000028610229</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>2.630000114440918</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>1.610000014305115</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>1622843689</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1921807728</v>
@@ -998,22 +884,22 @@
         <v>42273</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>1.769999980926514</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>2.119999885559082</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>2.210000038146973</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>1.720000028610229</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>1622843689</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>1332393799</v>
@@ -1114,22 +1000,22 @@
         <v>42364</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>2.769999980926514</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>2.819999933242798</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>1.75</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>1622843689</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>2307353159</v>
@@ -1230,22 +1116,22 @@
         <v>42455</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>2.789999961853028</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>3.990000009536743</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>1622843689</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2213162450</v>
@@ -1346,22 +1232,22 @@
         <v>42546</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>5.090000152587891</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>4.820000171661377</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>1622843689</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3872376795</v>
@@ -1462,22 +1348,22 @@
         <v>42637</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>6.239999771118164</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>1622843689</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>5210903662</v>
@@ -1578,22 +1464,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>11.42000007629394</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>11.6899995803833</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>9.420000076293944</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>1622843689</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>10510691239</v>
@@ -1694,22 +1580,22 @@
         <v>42826</v>
       </c>
       <c r="D10">
-        <v>39.22581140273195</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="E10">
-        <v>39.47163009643555</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F10">
-        <v>39.55064372641578</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="G10">
-        <v>38.41811614637533</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="H10">
-        <v>2850792605</v>
+        <v>1622843689</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>13688030617</v>
@@ -1810,22 +1696,22 @@
         <v>42917</v>
       </c>
       <c r="D11">
-        <v>102.0133622053498</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="E11">
-        <v>96.09502410888672</v>
+        <v>13.60999965667725</v>
       </c>
       <c r="F11">
-        <v>103.6407392657914</v>
+        <v>15.64999961853027</v>
       </c>
       <c r="G11">
-        <v>95.4108561422248</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>1622843689</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>11793801852</v>
@@ -1926,22 +1812,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>10.98999977111816</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>1622843689</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>12071432747</v>
@@ -2042,22 +1928,22 @@
         <v>43099</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>10.42000007629394</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>1622843689</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>9918129639</v>
@@ -2158,22 +2044,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>1622843689</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>9739557420</v>
@@ -2274,22 +2160,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>14.80000019073486</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>18.32999992370605</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>1622843689</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>14530466380</v>
@@ -2390,22 +2276,22 @@
         <v>43372</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>18.20999908447266</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>31.90999984741211</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>16.17000007629395</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>1622843689</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>30113808714</v>
@@ -2518,22 +2404,22 @@
         <v>43463</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>18.01000022888184</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>25.13999938964844</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>1622843689</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>17809436589</v>
@@ -2634,22 +2520,22 @@
         <v>43554</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>26.42000007629395</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>27.6299991607666</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>29.95000076293945</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>1622843689</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>25655227469</v>
@@ -2762,22 +2648,22 @@
         <v>43645</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>31.79000091552734</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>30.45000076293945</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>34.86000061035156</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>30.10000038146973</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>1622843689</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>32848213958</v>
@@ -2890,22 +2776,22 @@
         <v>43736</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>33.93000030517578</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>34.34000015258789</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>27.43000030517578</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>1622843689</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>31176891430</v>
@@ -3018,22 +2904,22 @@
         <v>43827</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>46.86000061035156</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>52.81000137329102</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>46.09999847412109</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>1622843689</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>51427319243</v>
@@ -3146,22 +3032,22 @@
         <v>43918</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>44.18000030517578</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>52.38999938964844</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>58.63000106811523</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>41.70000076293945</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>1622843689</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>54482834347</v>
@@ -3274,22 +3160,22 @@
         <v>44009</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>52.63000106811523</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>77.43000030517578</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>78.95999908447266</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>51.59999847412109</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>1622843689</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>58676638890</v>
@@ -3402,22 +3288,22 @@
         <v>44100</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>83.05999755859375</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>75.29000091552734</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>88.72000122070312</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>74.23000335693359</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>1622843689</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>91640996733</v>
@@ -3530,22 +3416,22 @@
         <v>44191</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>92.11000061035156</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>85.63999938964844</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>99.23000335693359</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>85.01999664306641</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>1622843689</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>110420955485</v>
@@ -3658,22 +3544,22 @@
         <v>44282</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>80.16000366210938</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>81.62000274658203</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>89.19999694824219</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>77.94000244140625</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>1622843689</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>93765185497</v>
@@ -3786,22 +3672,22 @@
         <v>44373</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>94.04000091552734</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>106.1900024414062</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>106.9700012207031</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>84.23999786376953</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>1622843689</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>104030095965</v>
@@ -3914,22 +3800,22 @@
         <v>44464</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>102.5999984741211</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>120.2300033569336</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>128.0800018310547</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>99.81999969482422</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>1622843689</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>128331726836</v>
@@ -4042,22 +3928,22 @@
         <v>44555</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>145.1399993896484</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>114.25</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>152.4199981689453</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>99.34999847412109</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>1622843689</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>176480191894</v>
@@ -4170,22 +4056,22 @@
         <v>44646</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>110.4800033569336</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>85.51999664306641</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>111.4199981689453</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>84.01999664306641</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>1622843689</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>143520640511</v>
@@ -4298,22 +4184,22 @@
         <v>44737</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>75.19000244140625</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>94.47000122070312</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>94.80999755859376</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>71.59999847412109</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>1622843689</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>141113828280</v>
@@ -4426,22 +4312,22 @@
         <v>44828</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>64.45999908447266</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>60.06000137329102</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>70.29000091552734</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>54.56999969482422</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>1622843689</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>109709248364</v>
@@ -4554,22 +4440,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>66</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>77.08000183105469</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>60.04999923706055</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>1622843689</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>104432308613</v>
@@ -4673,22 +4559,22 @@
         <v>45017</v>
       </c>
       <c r="D34">
-        <v>27.09000015258789</v>
+        <v>96.6999969482422</v>
       </c>
       <c r="E34">
-        <v>28.3700008392334</v>
+        <v>89.37000274658203</v>
       </c>
       <c r="F34">
-        <v>30.20000076293945</v>
+        <v>97.26999664306641</v>
       </c>
       <c r="G34">
-        <v>25.52000045776367</v>
+        <v>83.76000213623047</v>
       </c>
       <c r="H34">
-        <v>48253392</v>
+        <v>1622843689</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>157932159148</v>
@@ -4789,22 +4675,22 @@
         <v>45108</v>
       </c>
       <c r="D35">
-        <v>62.68228996223018</v>
+        <v>115.1600036621094</v>
       </c>
       <c r="E35">
-        <v>70.53733825683594</v>
+        <v>114.4000015258789</v>
       </c>
       <c r="F35">
-        <v>71.47598872124311</v>
+        <v>122.120002746582</v>
       </c>
       <c r="G35">
-        <v>59.77740581347258</v>
+        <v>108.5500030517578</v>
       </c>
       <c r="H35">
-        <v>1122466035</v>
+        <v>1622843689</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>183436320612</v>
@@ -4917,22 +4803,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>102.2099990844727</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>98.5</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>111.3099975585938</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>93.12000274658205</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>1622843689</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>166123331292</v>
@@ -5045,22 +4931,22 @@
         <v>45290</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>144.2799987792969</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>167.6900024414062</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>184.9199981689453</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>133.7400054931641</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>1622843689</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>238140691522</v>
@@ -5164,22 +5050,22 @@
         <v>45381</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>180.1000061035156</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>158.3800048828125</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>187.2400054931641</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>145.2899932861328</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>1622843689</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>291633366932</v>
@@ -5280,22 +5166,22 @@
         <v>45472</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>161.25</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>144.4799957275391</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>187.2799987792969</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>134.0500030517578</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>1622843689</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>262182273015</v>
@@ -5408,22 +5294,22 @@
         <v>45563</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>164.4799957275391</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>144.0700073242188</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>174.0500030517578</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>143.3300018310547</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>1622843689</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>265997491226</v>
@@ -5536,22 +5422,22 @@
         <v>45654</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>122.2900009155273</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>115.9499969482422</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>131.7100067138672</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>112.8000030517578</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>1622843689</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>203159251646</v>
@@ -5664,22 +5550,22 @@
         <v>45745</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>102.1600036621094</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>97.34999847412109</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>104.1900024414062</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>76.48000335693359</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>1622843689</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>167265735238</v>
@@ -5792,22 +5678,22 @@
         <v>45836</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>138.7700042724609</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>176.3099975585938</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>182.5</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>133.5</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>1622843689</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>233174137283</v>
